--- a/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件判决件数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民法院审理合同纠纷一审案件收结案情况/人民法院审理合同纠纷一审案件判决件数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,645 +498,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240430</v>
+        <v>175600</v>
       </c>
       <c r="C2" t="n">
-        <v>20105</v>
+        <v>8802</v>
       </c>
       <c r="D2" t="n">
-        <v>414039</v>
+        <v>355468</v>
       </c>
       <c r="E2" t="n">
-        <v>122146</v>
+        <v>202277</v>
       </c>
       <c r="F2" t="n">
-        <v>15794</v>
+        <v>10003</v>
       </c>
       <c r="G2" t="n">
-        <v>49010</v>
+        <v>110257</v>
       </c>
       <c r="H2" t="n">
-        <v>1019161</v>
+        <v>1016249</v>
       </c>
       <c r="I2" t="n">
-        <v>29832</v>
+        <v>32552</v>
       </c>
       <c r="J2" t="n">
-        <v>46741</v>
+        <v>47248</v>
       </c>
       <c r="K2" t="n">
-        <v>23742</v>
+        <v>21987</v>
       </c>
       <c r="L2" t="n">
-        <v>14701</v>
+        <v>3478</v>
       </c>
       <c r="M2" t="n">
-        <v>42621</v>
+        <v>48577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>233804</v>
+        <v>155226</v>
       </c>
       <c r="C3" t="n">
-        <v>23221</v>
+        <v>7030</v>
       </c>
       <c r="D3" t="n">
-        <v>391140</v>
+        <v>353284</v>
       </c>
       <c r="E3" t="n">
-        <v>125138</v>
+        <v>206509</v>
       </c>
       <c r="F3" t="n">
-        <v>17278</v>
+        <v>8047</v>
       </c>
       <c r="G3" t="n">
-        <v>55831</v>
+        <v>92258</v>
       </c>
       <c r="H3" t="n">
-        <v>1017418</v>
+        <v>965626</v>
       </c>
       <c r="I3" t="n">
-        <v>32094</v>
+        <v>28789</v>
       </c>
       <c r="J3" t="n">
-        <v>55203</v>
+        <v>44534</v>
       </c>
       <c r="K3" t="n">
-        <v>24296</v>
+        <v>19711</v>
       </c>
       <c r="L3" t="n">
-        <v>14152</v>
+        <v>4151</v>
       </c>
       <c r="M3" t="n">
-        <v>45261</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218666</v>
+        <v>161097</v>
       </c>
       <c r="C4" t="n">
-        <v>19968</v>
+        <v>6058</v>
       </c>
       <c r="D4" t="n">
-        <v>331906</v>
+        <v>411369</v>
       </c>
       <c r="E4" t="n">
-        <v>133251</v>
+        <v>217269</v>
       </c>
       <c r="F4" t="n">
-        <v>17492</v>
+        <v>6331</v>
       </c>
       <c r="G4" t="n">
-        <v>57721</v>
+        <v>99353</v>
       </c>
       <c r="H4" t="n">
-        <v>946910</v>
+        <v>1045527</v>
       </c>
       <c r="I4" t="n">
-        <v>32408</v>
+        <v>30836</v>
       </c>
       <c r="J4" t="n">
-        <v>53964</v>
+        <v>45073</v>
       </c>
       <c r="K4" t="n">
-        <v>23958</v>
+        <v>19488</v>
       </c>
       <c r="L4" t="n">
-        <v>14445</v>
+        <v>2015</v>
       </c>
       <c r="M4" t="n">
-        <v>43131</v>
+        <v>46638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>209714</v>
+        <v>190425</v>
       </c>
       <c r="C5" t="n">
-        <v>21173</v>
+        <v>5817</v>
       </c>
       <c r="D5" t="n">
-        <v>308003</v>
+        <v>544786</v>
       </c>
       <c r="E5" t="n">
-        <v>138193</v>
+        <v>252839</v>
       </c>
       <c r="F5" t="n">
-        <v>18210</v>
+        <v>6020</v>
       </c>
       <c r="G5" t="n">
-        <v>62608</v>
+        <v>113368</v>
       </c>
       <c r="H5" t="n">
-        <v>930483</v>
+        <v>1282387</v>
       </c>
       <c r="I5" t="n">
-        <v>33353</v>
+        <v>35831</v>
       </c>
       <c r="J5" t="n">
-        <v>52896</v>
+        <v>55134</v>
       </c>
       <c r="K5" t="n">
-        <v>25583</v>
+        <v>21653</v>
       </c>
       <c r="L5" t="n">
-        <v>15299</v>
+        <v>2539</v>
       </c>
       <c r="M5" t="n">
-        <v>45451</v>
+        <v>53975</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202954</v>
+        <v>251798</v>
       </c>
       <c r="C6" t="n">
-        <v>18960</v>
+        <v>5261</v>
       </c>
       <c r="D6" t="n">
-        <v>302307</v>
+        <v>764268</v>
       </c>
       <c r="E6" t="n">
-        <v>145125</v>
+        <v>330352</v>
       </c>
       <c r="F6" t="n">
-        <v>19126</v>
+        <v>6634</v>
       </c>
       <c r="G6" t="n">
-        <v>66989</v>
+        <v>146797</v>
       </c>
       <c r="H6" t="n">
-        <v>926504</v>
+        <v>1716963</v>
       </c>
       <c r="I6" t="n">
-        <v>32541</v>
+        <v>47093</v>
       </c>
       <c r="J6" t="n">
-        <v>51689</v>
+        <v>66249</v>
       </c>
       <c r="K6" t="n">
-        <v>25364</v>
+        <v>27464</v>
       </c>
       <c r="L6" t="n">
-        <v>15545</v>
+        <v>1939</v>
       </c>
       <c r="M6" t="n">
-        <v>45904</v>
+        <v>69108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200082</v>
+        <v>367654</v>
       </c>
       <c r="C7" t="n">
-        <v>19423</v>
+        <v>7047</v>
       </c>
       <c r="D7" t="n">
-        <v>338502</v>
+        <v>1135359</v>
       </c>
       <c r="E7" t="n">
-        <v>160840</v>
+        <v>469982</v>
       </c>
       <c r="F7" t="n">
-        <v>18200</v>
+        <v>8681</v>
       </c>
       <c r="G7" t="n">
-        <v>70963</v>
+        <v>201792</v>
       </c>
       <c r="H7" t="n">
-        <v>980987</v>
+        <v>2501152</v>
       </c>
       <c r="I7" t="n">
-        <v>32597</v>
+        <v>67034</v>
       </c>
       <c r="J7" t="n">
-        <v>52430</v>
+        <v>109724</v>
       </c>
       <c r="K7" t="n">
-        <v>25304</v>
+        <v>36306</v>
       </c>
       <c r="L7" t="n">
-        <v>13835</v>
+        <v>2759</v>
       </c>
       <c r="M7" t="n">
-        <v>48811</v>
+        <v>94814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215522</v>
+        <v>455972</v>
       </c>
       <c r="C8" t="n">
-        <v>14767</v>
+        <v>7510</v>
       </c>
       <c r="D8" t="n">
-        <v>369806</v>
+        <v>1448956</v>
       </c>
       <c r="E8" t="n">
-        <v>176583</v>
+        <v>618859</v>
       </c>
       <c r="F8" t="n">
-        <v>17192</v>
+        <v>8972</v>
       </c>
       <c r="G8" t="n">
-        <v>124652</v>
+        <v>228971</v>
       </c>
       <c r="H8" t="n">
-        <v>1095945</v>
+        <v>3144012</v>
       </c>
       <c r="I8" t="n">
-        <v>34967</v>
+        <v>82660</v>
       </c>
       <c r="J8" t="n">
-        <v>55079</v>
+        <v>130715</v>
       </c>
       <c r="K8" t="n">
-        <v>27898</v>
+        <v>41540</v>
       </c>
       <c r="L8" t="n">
-        <v>8621</v>
+        <v>1645</v>
       </c>
       <c r="M8" t="n">
-        <v>50858</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>203198</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12431</v>
-      </c>
-      <c r="D9" t="n">
-        <v>372961</v>
-      </c>
-      <c r="E9" t="n">
-        <v>202556</v>
-      </c>
-      <c r="F9" t="n">
-        <v>13104</v>
-      </c>
-      <c r="G9" t="n">
-        <v>125578</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1103888</v>
-      </c>
-      <c r="I9" t="n">
-        <v>35512</v>
-      </c>
-      <c r="J9" t="n">
-        <v>53194</v>
-      </c>
-      <c r="K9" t="n">
-        <v>27314</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5078</v>
-      </c>
-      <c r="M9" t="n">
-        <v>52962</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>175600</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8802</v>
-      </c>
-      <c r="D10" t="n">
-        <v>355468</v>
-      </c>
-      <c r="E10" t="n">
-        <v>202277</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10003</v>
-      </c>
-      <c r="G10" t="n">
-        <v>110257</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1016249</v>
-      </c>
-      <c r="I10" t="n">
-        <v>32552</v>
-      </c>
-      <c r="J10" t="n">
-        <v>47248</v>
-      </c>
-      <c r="K10" t="n">
-        <v>21987</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3478</v>
-      </c>
-      <c r="M10" t="n">
-        <v>48577</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>155226</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7030</v>
-      </c>
-      <c r="D11" t="n">
-        <v>353284</v>
-      </c>
-      <c r="E11" t="n">
-        <v>206509</v>
-      </c>
-      <c r="F11" t="n">
-        <v>8047</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92258</v>
-      </c>
-      <c r="H11" t="n">
-        <v>965626</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28789</v>
-      </c>
-      <c r="J11" t="n">
-        <v>44534</v>
-      </c>
-      <c r="K11" t="n">
-        <v>19711</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4151</v>
-      </c>
-      <c r="M11" t="n">
-        <v>46087</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>161097</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6058</v>
-      </c>
-      <c r="D12" t="n">
-        <v>411369</v>
-      </c>
-      <c r="E12" t="n">
-        <v>217269</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6331</v>
-      </c>
-      <c r="G12" t="n">
-        <v>99353</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1045527</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30836</v>
-      </c>
-      <c r="J12" t="n">
-        <v>45073</v>
-      </c>
-      <c r="K12" t="n">
-        <v>19488</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2015</v>
-      </c>
-      <c r="M12" t="n">
-        <v>46638</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>190425</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5817</v>
-      </c>
-      <c r="D13" t="n">
-        <v>544786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>252839</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6020</v>
-      </c>
-      <c r="G13" t="n">
-        <v>113368</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1282387</v>
-      </c>
-      <c r="I13" t="n">
-        <v>35831</v>
-      </c>
-      <c r="J13" t="n">
-        <v>55134</v>
-      </c>
-      <c r="K13" t="n">
-        <v>21653</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2539</v>
-      </c>
-      <c r="M13" t="n">
-        <v>53975</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>251798</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5261</v>
-      </c>
-      <c r="D14" t="n">
-        <v>764268</v>
-      </c>
-      <c r="E14" t="n">
-        <v>330352</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6634</v>
-      </c>
-      <c r="G14" t="n">
-        <v>146797</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1716963</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47093</v>
-      </c>
-      <c r="J14" t="n">
-        <v>66249</v>
-      </c>
-      <c r="K14" t="n">
-        <v>27464</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1939</v>
-      </c>
-      <c r="M14" t="n">
-        <v>69108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>367654</v>
-      </c>
-      <c r="C15" t="n">
-        <v>7047</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1135359</v>
-      </c>
-      <c r="E15" t="n">
-        <v>469982</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8681</v>
-      </c>
-      <c r="G15" t="n">
-        <v>201792</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2501152</v>
-      </c>
-      <c r="I15" t="n">
-        <v>67034</v>
-      </c>
-      <c r="J15" t="n">
-        <v>109724</v>
-      </c>
-      <c r="K15" t="n">
-        <v>36306</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2759</v>
-      </c>
-      <c r="M15" t="n">
-        <v>94814</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>455972</v>
-      </c>
-      <c r="C16" t="n">
-        <v>7510</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1448956</v>
-      </c>
-      <c r="E16" t="n">
-        <v>618859</v>
-      </c>
-      <c r="F16" t="n">
-        <v>8972</v>
-      </c>
-      <c r="G16" t="n">
-        <v>228971</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3144012</v>
-      </c>
-      <c r="I16" t="n">
-        <v>82660</v>
-      </c>
-      <c r="J16" t="n">
-        <v>130715</v>
-      </c>
-      <c r="K16" t="n">
-        <v>41540</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1645</v>
-      </c>
-      <c r="M16" t="n">
         <v>118212</v>
       </c>
     </row>
